--- a/data/pca/factorExposure/factorExposure_2009-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008385561183326224</v>
+        <v>0.01671537773335096</v>
       </c>
       <c r="C2">
-        <v>0.001602971805549629</v>
+        <v>0.0009088928377812021</v>
       </c>
       <c r="D2">
-        <v>-0.009044408273259714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008806825684035942</v>
+      </c>
+      <c r="E2">
+        <v>-0.001682741914569999</v>
+      </c>
+      <c r="F2">
+        <v>-0.01263941517723852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1091009439698246</v>
+        <v>0.0935005622544631</v>
       </c>
       <c r="C4">
-        <v>0.00139128588776535</v>
+        <v>0.01459521627857815</v>
       </c>
       <c r="D4">
-        <v>-0.05060763006346369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0848482210891494</v>
+      </c>
+      <c r="E4">
+        <v>-0.02988295239563264</v>
+      </c>
+      <c r="F4">
+        <v>0.03156678362281672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.138540444636737</v>
+        <v>0.159148706515009</v>
       </c>
       <c r="C6">
-        <v>0.005512969572999882</v>
+        <v>0.02625821486289889</v>
       </c>
       <c r="D6">
-        <v>0.03060338690359188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02263370858602826</v>
+      </c>
+      <c r="E6">
+        <v>-0.01054777808031614</v>
+      </c>
+      <c r="F6">
+        <v>0.04642465766053356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07544253786363354</v>
+        <v>0.06318292148331155</v>
       </c>
       <c r="C7">
-        <v>-0.01108681110999875</v>
+        <v>-0.001837963907032569</v>
       </c>
       <c r="D7">
-        <v>-0.03170485088561295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05299222006872064</v>
+      </c>
+      <c r="E7">
+        <v>-0.01098753272127662</v>
+      </c>
+      <c r="F7">
+        <v>0.04632485067763359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06757214988976608</v>
+        <v>0.0572601820621723</v>
       </c>
       <c r="C8">
-        <v>-0.02067140733858843</v>
+        <v>-0.0135063183245484</v>
       </c>
       <c r="D8">
-        <v>0.002694386609715029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03311832838716099</v>
+      </c>
+      <c r="E8">
+        <v>-0.01800394921563593</v>
+      </c>
+      <c r="F8">
+        <v>-0.02719870039050556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09012836317247748</v>
+        <v>0.07066041611620602</v>
       </c>
       <c r="C9">
-        <v>0.001761796016976604</v>
+        <v>0.01022019741709013</v>
       </c>
       <c r="D9">
-        <v>-0.04718424166837351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08696643897751062</v>
+      </c>
+      <c r="E9">
+        <v>-0.02333940943610904</v>
+      </c>
+      <c r="F9">
+        <v>0.04721976102039863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.05510133488378807</v>
+        <v>0.09298729751950673</v>
       </c>
       <c r="C10">
-        <v>0.001705015344941848</v>
+        <v>0.02107639954668429</v>
       </c>
       <c r="D10">
-        <v>0.1374679688542947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1671919455480838</v>
+      </c>
+      <c r="E10">
+        <v>0.03425562504732067</v>
+      </c>
+      <c r="F10">
+        <v>-0.05471144534301724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09883126322821258</v>
+        <v>0.08781835339371571</v>
       </c>
       <c r="C11">
-        <v>0.001127701510058192</v>
+        <v>0.01033430135569604</v>
       </c>
       <c r="D11">
-        <v>-0.0789902326974331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1167391534565893</v>
+      </c>
+      <c r="E11">
+        <v>-0.04599451854377556</v>
+      </c>
+      <c r="F11">
+        <v>0.0221963042483631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1069688887739037</v>
+        <v>0.09189168116883525</v>
       </c>
       <c r="C12">
-        <v>-0.001563911008010231</v>
+        <v>0.007682132353385546</v>
       </c>
       <c r="D12">
-        <v>-0.0785190042104511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320930516638498</v>
+      </c>
+      <c r="E12">
+        <v>-0.04722045473146234</v>
+      </c>
+      <c r="F12">
+        <v>0.02815092433910169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04402221216465636</v>
+        <v>0.04174737834915652</v>
       </c>
       <c r="C13">
-        <v>-0.0008923696689653853</v>
+        <v>0.002632307156996019</v>
       </c>
       <c r="D13">
-        <v>-0.03193093251610798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05354293196565357</v>
+      </c>
+      <c r="E13">
+        <v>0.004944172789910356</v>
+      </c>
+      <c r="F13">
+        <v>9.723708029941639e-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02021636134261164</v>
+        <v>0.02397079643810225</v>
       </c>
       <c r="C14">
-        <v>0.01132945330515398</v>
+        <v>0.013862046291234</v>
       </c>
       <c r="D14">
-        <v>-0.0256384676262287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0326762302798423</v>
+      </c>
+      <c r="E14">
+        <v>-0.01915842575051116</v>
+      </c>
+      <c r="F14">
+        <v>0.01220199427110454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04225144156021715</v>
+        <v>0.03265196347607451</v>
       </c>
       <c r="C15">
-        <v>0.0009831592701131755</v>
+        <v>0.004636338223675623</v>
       </c>
       <c r="D15">
-        <v>-0.01379791643087197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04516860467491927</v>
+      </c>
+      <c r="E15">
+        <v>-0.005897930293530934</v>
+      </c>
+      <c r="F15">
+        <v>0.02374578675266798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08799266850359966</v>
+        <v>0.07430333555142596</v>
       </c>
       <c r="C16">
-        <v>-0.006382905087875734</v>
+        <v>0.0009985973460783059</v>
       </c>
       <c r="D16">
-        <v>-0.07275751638544153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1275306668388183</v>
+      </c>
+      <c r="E16">
+        <v>-0.06122371859679425</v>
+      </c>
+      <c r="F16">
+        <v>0.02667693101540061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004582352153404496</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-8.297634698771241e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006063304792684899</v>
+      </c>
+      <c r="E17">
+        <v>-0.0002777962535051798</v>
+      </c>
+      <c r="F17">
+        <v>-0.0004803527268361883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03489059722651677</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003102007030573684</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01631333918927164</v>
+      </c>
+      <c r="E18">
+        <v>0.006302070669628848</v>
+      </c>
+      <c r="F18">
+        <v>-0.008811987654474629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06570364224711013</v>
+        <v>0.06144426683902227</v>
       </c>
       <c r="C20">
-        <v>-0.003491209150077261</v>
+        <v>-0.0001417214827959714</v>
       </c>
       <c r="D20">
-        <v>-0.02261671842895529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07759130192671122</v>
+      </c>
+      <c r="E20">
+        <v>-0.05576392236844351</v>
+      </c>
+      <c r="F20">
+        <v>0.02418467078246625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03933893224937474</v>
+        <v>0.04065831121569766</v>
       </c>
       <c r="C21">
-        <v>0.004567010790078551</v>
+        <v>0.006445802655273052</v>
       </c>
       <c r="D21">
-        <v>-0.01076323385417883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03742564406372966</v>
+      </c>
+      <c r="E21">
+        <v>0.002905727553716598</v>
+      </c>
+      <c r="F21">
+        <v>-0.02581793714028113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02269573305231037</v>
+        <v>0.04247296660459208</v>
       </c>
       <c r="C22">
-        <v>-0.001248430843084627</v>
+        <v>0.0004599058742780251</v>
       </c>
       <c r="D22">
-        <v>0.0219962705496175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006881885649371863</v>
+      </c>
+      <c r="E22">
+        <v>-0.03493850976837583</v>
+      </c>
+      <c r="F22">
+        <v>-0.0409420991682696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02263534739714297</v>
+        <v>0.04244886365803949</v>
       </c>
       <c r="C23">
-        <v>-0.001246646751755525</v>
+        <v>0.0004515640838762501</v>
       </c>
       <c r="D23">
-        <v>0.02199047994353672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006897810433919941</v>
+      </c>
+      <c r="E23">
+        <v>-0.03512257283445996</v>
+      </c>
+      <c r="F23">
+        <v>-0.04090398492685114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09474967342032137</v>
+        <v>0.07998101479036822</v>
       </c>
       <c r="C24">
-        <v>-0.007248405035693619</v>
+        <v>0.001618786877324969</v>
       </c>
       <c r="D24">
-        <v>-0.08461868331484924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216465208739712</v>
+      </c>
+      <c r="E24">
+        <v>-0.04931501693728826</v>
+      </c>
+      <c r="F24">
+        <v>0.02724132855118981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09803736567106598</v>
+        <v>0.08528706389055227</v>
       </c>
       <c r="C25">
-        <v>-0.004443776299839077</v>
+        <v>0.004348175633163888</v>
       </c>
       <c r="D25">
-        <v>-0.08123462254434491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1092239584484538</v>
+      </c>
+      <c r="E25">
+        <v>-0.03271911935070155</v>
+      </c>
+      <c r="F25">
+        <v>0.02677837209889255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05344142023296462</v>
+        <v>0.05829106521402026</v>
       </c>
       <c r="C26">
-        <v>0.01055519665892255</v>
+        <v>0.01410817234652822</v>
       </c>
       <c r="D26">
-        <v>-0.00342965174746318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04128214450561864</v>
+      </c>
+      <c r="E26">
+        <v>-0.02816645678197952</v>
+      </c>
+      <c r="F26">
+        <v>-0.005921159437131823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1043660094928815</v>
+        <v>0.1419610049819357</v>
       </c>
       <c r="C28">
-        <v>-0.009098109797328328</v>
+        <v>0.02179829665526445</v>
       </c>
       <c r="D28">
-        <v>0.2588531180857944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2615792016616269</v>
+      </c>
+      <c r="E28">
+        <v>0.06735155465998049</v>
+      </c>
+      <c r="F28">
+        <v>0.008336392145771903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02359831392185622</v>
+        <v>0.0284437237901878</v>
       </c>
       <c r="C29">
-        <v>0.006491196400159788</v>
+        <v>0.008737587090593427</v>
       </c>
       <c r="D29">
-        <v>-0.01609750531158627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03084792553201973</v>
+      </c>
+      <c r="E29">
+        <v>-0.01365082212614334</v>
+      </c>
+      <c r="F29">
+        <v>-0.01377110282872388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09854221558063264</v>
+        <v>0.05992909620318472</v>
       </c>
       <c r="C30">
-        <v>-0.009870457441044544</v>
+        <v>0.002759200064177233</v>
       </c>
       <c r="D30">
-        <v>-0.05570859523776471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08952614870261247</v>
+      </c>
+      <c r="E30">
+        <v>-0.01607258687625293</v>
+      </c>
+      <c r="F30">
+        <v>0.07985043666069463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03542163924781899</v>
+        <v>0.05070343526270301</v>
       </c>
       <c r="C31">
-        <v>0.01183396920979179</v>
+        <v>0.01532450004101082</v>
       </c>
       <c r="D31">
-        <v>-0.01507980086945948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02459642611416285</v>
+      </c>
+      <c r="E31">
+        <v>-0.02761528758538656</v>
+      </c>
+      <c r="F31">
+        <v>-0.00215438591911542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04799338253104823</v>
+        <v>0.05129249232224458</v>
       </c>
       <c r="C32">
-        <v>-0.006773926842111413</v>
+        <v>-0.001799871103611008</v>
       </c>
       <c r="D32">
-        <v>-0.01513675005485922</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03508170490553734</v>
+      </c>
+      <c r="E32">
+        <v>-0.03303179990871891</v>
+      </c>
+      <c r="F32">
+        <v>0.003228624865315481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1035287182114816</v>
+        <v>0.08932757636101875</v>
       </c>
       <c r="C33">
-        <v>-0.003746073859342838</v>
+        <v>0.007014312820411119</v>
       </c>
       <c r="D33">
-        <v>-0.05483472222649501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1002116141131753</v>
+      </c>
+      <c r="E33">
+        <v>-0.04389527047901135</v>
+      </c>
+      <c r="F33">
+        <v>0.03597976180560232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08698056291838877</v>
+        <v>0.06771072370639754</v>
       </c>
       <c r="C34">
-        <v>0.0008631481881232302</v>
+        <v>0.009996622053231688</v>
       </c>
       <c r="D34">
-        <v>-0.07600343972940936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1089194418985207</v>
+      </c>
+      <c r="E34">
+        <v>-0.03440481360598358</v>
+      </c>
+      <c r="F34">
+        <v>0.03345483829508106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02170495052105397</v>
+        <v>0.02467323626045384</v>
       </c>
       <c r="C35">
-        <v>-0.001146430176699672</v>
+        <v>0.002489475071792813</v>
       </c>
       <c r="D35">
-        <v>-0.004393827083563588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01123812269011514</v>
+      </c>
+      <c r="E35">
+        <v>-0.01223973172735647</v>
+      </c>
+      <c r="F35">
+        <v>0.0007076326249187287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0144853745306918</v>
+        <v>0.02762630274288052</v>
       </c>
       <c r="C36">
-        <v>0.008195819361623922</v>
+        <v>0.006815919595839127</v>
       </c>
       <c r="D36">
-        <v>-0.026253456975726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03964838281806152</v>
+      </c>
+      <c r="E36">
+        <v>-0.01642620846184334</v>
+      </c>
+      <c r="F36">
+        <v>0.01557181190380293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001347146106099859</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006638172409545491</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002400079150681282</v>
+      </c>
+      <c r="E37">
+        <v>0.000654246559626708</v>
+      </c>
+      <c r="F37">
+        <v>0.0004569400870926703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001006325742211259</v>
+        <v>6.514170071097802e-05</v>
       </c>
       <c r="C38">
-        <v>2.678890372619412e-05</v>
+        <v>-5.294373579660793e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001083124279030416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0004276738927019635</v>
+      </c>
+      <c r="E38">
+        <v>0.0004493524432169737</v>
+      </c>
+      <c r="F38">
+        <v>0.000201452224875938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1350061114126046</v>
+        <v>0.1048840023656222</v>
       </c>
       <c r="C39">
-        <v>0.0006641462312120463</v>
+        <v>0.01553320682976331</v>
       </c>
       <c r="D39">
-        <v>-0.1174983979258272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1544907816636681</v>
+      </c>
+      <c r="E39">
+        <v>-0.05896731424088465</v>
+      </c>
+      <c r="F39">
+        <v>0.03033086475498123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02800505287946139</v>
+        <v>0.04164392712892578</v>
       </c>
       <c r="C40">
-        <v>0.005472674085946435</v>
+        <v>0.006674653612819502</v>
       </c>
       <c r="D40">
-        <v>0.01471809680058499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03206534928653942</v>
+      </c>
+      <c r="E40">
+        <v>-0.003299362318655966</v>
+      </c>
+      <c r="F40">
+        <v>-0.01622167070543075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0192172132111961</v>
+        <v>0.02783559924742474</v>
       </c>
       <c r="C41">
-        <v>0.004914480816550244</v>
+        <v>0.006896199275627369</v>
       </c>
       <c r="D41">
-        <v>0.001062529875069128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01040962340137834</v>
+      </c>
+      <c r="E41">
+        <v>-0.01176673885880326</v>
+      </c>
+      <c r="F41">
+        <v>-0.007062188850459084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01779186775674185</v>
+        <v>0.04064249070950734</v>
       </c>
       <c r="C43">
-        <v>0.006963893509524741</v>
+        <v>0.007078860906852436</v>
       </c>
       <c r="D43">
-        <v>-0.01041512224983533</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01906377360395015</v>
+      </c>
+      <c r="E43">
+        <v>-0.02501382075953717</v>
+      </c>
+      <c r="F43">
+        <v>-0.01399880087655093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1046597842188827</v>
+        <v>0.07935065892296325</v>
       </c>
       <c r="C44">
-        <v>0.008474257367695208</v>
+        <v>0.01925940819460579</v>
       </c>
       <c r="D44">
-        <v>-0.05433544797632017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09786787347511527</v>
+      </c>
+      <c r="E44">
+        <v>-0.06153777033984516</v>
+      </c>
+      <c r="F44">
+        <v>0.1557582344186625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.003692140458954614</v>
+        <v>0.02309485605515704</v>
       </c>
       <c r="C46">
-        <v>0.004561641026466978</v>
+        <v>0.003321460928608398</v>
       </c>
       <c r="D46">
-        <v>0.001135122066500042</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01318599205861577</v>
+      </c>
+      <c r="E46">
+        <v>-0.02586642568190842</v>
+      </c>
+      <c r="F46">
+        <v>-0.008191349192416434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04268293874411824</v>
+        <v>0.05210912033899805</v>
       </c>
       <c r="C47">
-        <v>-0.0008246870290545664</v>
+        <v>0.00336740197829752</v>
       </c>
       <c r="D47">
-        <v>0.02209395489843015</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01416315020190846</v>
+      </c>
+      <c r="E47">
+        <v>-0.02281949271073631</v>
+      </c>
+      <c r="F47">
+        <v>-0.03237705176430732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05396192954630614</v>
+        <v>0.05019385115083894</v>
       </c>
       <c r="C48">
-        <v>-0.0032023290596776</v>
+        <v>0.002223426118868684</v>
       </c>
       <c r="D48">
-        <v>-0.02566072951668965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04995047006780869</v>
+      </c>
+      <c r="E48">
+        <v>0.005535192600981265</v>
+      </c>
+      <c r="F48">
+        <v>0.009010635058548478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2236318833632329</v>
+        <v>0.2002288411294669</v>
       </c>
       <c r="C49">
-        <v>-0.01750230339569249</v>
+        <v>0.01889814548118391</v>
       </c>
       <c r="D49">
-        <v>0.03134492887104723</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006649286873599923</v>
+      </c>
+      <c r="E49">
+        <v>-0.03100880586229037</v>
+      </c>
+      <c r="F49">
+        <v>0.03705968889204401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04043442170000148</v>
+        <v>0.05107736440550692</v>
       </c>
       <c r="C50">
-        <v>0.00711456030938381</v>
+        <v>0.01103291159298903</v>
       </c>
       <c r="D50">
-        <v>-0.008568184806741855</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02398247315100463</v>
+      </c>
+      <c r="E50">
+        <v>-0.02940287520069446</v>
+      </c>
+      <c r="F50">
+        <v>0.009099557734532927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0003469914771229328</v>
+        <v>-0.0002102492208764946</v>
       </c>
       <c r="C51">
-        <v>1.719485117729223e-05</v>
+        <v>-4.609796368946516e-05</v>
       </c>
       <c r="D51">
-        <v>-0.0004393887964772436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001534104397042254</v>
+      </c>
+      <c r="E51">
+        <v>6.684794451376609e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.0007865616499136094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1585250392572051</v>
+        <v>0.1470640699512627</v>
       </c>
       <c r="C52">
-        <v>-0.009530139104477933</v>
+        <v>0.01672375609143439</v>
       </c>
       <c r="D52">
-        <v>-0.03909758887088429</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04282682496815129</v>
+      </c>
+      <c r="E52">
+        <v>-0.01912846318072199</v>
+      </c>
+      <c r="F52">
+        <v>0.04304221668201451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1741476743157221</v>
+        <v>0.1713441492883156</v>
       </c>
       <c r="C53">
-        <v>-0.01124882257927082</v>
+        <v>0.01954653950179433</v>
       </c>
       <c r="D53">
-        <v>-0.0003992646755823939</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00532979429613688</v>
+      </c>
+      <c r="E53">
+        <v>-0.02809431602068256</v>
+      </c>
+      <c r="F53">
+        <v>0.07349501939420419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02484060398607751</v>
+        <v>0.0214018338328887</v>
       </c>
       <c r="C54">
-        <v>0.008081366402169851</v>
+        <v>0.01154395759249508</v>
       </c>
       <c r="D54">
-        <v>-0.01713395631016524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03437237530213993</v>
+      </c>
+      <c r="E54">
+        <v>-0.02163161963668193</v>
+      </c>
+      <c r="F54">
+        <v>-0.005659298239825803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1054065319403513</v>
+        <v>0.1141782652661231</v>
       </c>
       <c r="C55">
-        <v>-0.001691201510070211</v>
+        <v>0.01702778938532092</v>
       </c>
       <c r="D55">
-        <v>0.00295554275779307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008412626783923039</v>
+      </c>
+      <c r="E55">
+        <v>-0.02436071749646983</v>
+      </c>
+      <c r="F55">
+        <v>0.04794394821765888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1747975427450272</v>
+        <v>0.1765258379981627</v>
       </c>
       <c r="C56">
-        <v>-0.01351366794797032</v>
+        <v>0.01731024512987598</v>
       </c>
       <c r="D56">
-        <v>0.01763239799639169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001132396322632975</v>
+      </c>
+      <c r="E56">
+        <v>-0.03368567901908756</v>
+      </c>
+      <c r="F56">
+        <v>0.05159970384089138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03507644120138007</v>
+        <v>0.04490602718761371</v>
       </c>
       <c r="C58">
-        <v>0.00179179627901185</v>
+        <v>-0.0005257729426204856</v>
       </c>
       <c r="D58">
-        <v>-0.04454665897648091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07099576607598898</v>
+      </c>
+      <c r="E58">
+        <v>-0.03001099627292423</v>
+      </c>
+      <c r="F58">
+        <v>-0.03825534144612469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1290757648363904</v>
+        <v>0.1672518712611256</v>
       </c>
       <c r="C59">
-        <v>-0.0110651480635333</v>
+        <v>0.02173853505482412</v>
       </c>
       <c r="D59">
-        <v>0.2320000226973434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2173055637382622</v>
+      </c>
+      <c r="E59">
+        <v>0.04639940928583215</v>
+      </c>
+      <c r="F59">
+        <v>-0.03579595096005771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2633409164373677</v>
+        <v>0.2317715226024571</v>
       </c>
       <c r="C60">
-        <v>-0.04488967665056786</v>
+        <v>-0.002390342918794576</v>
       </c>
       <c r="D60">
-        <v>-0.02635511724825333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04179883122581774</v>
+      </c>
+      <c r="E60">
+        <v>-0.009801943695770716</v>
+      </c>
+      <c r="F60">
+        <v>-0.005548378328923451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1093599236256057</v>
+        <v>0.08057292396286006</v>
       </c>
       <c r="C61">
-        <v>-0.00173554413787511</v>
+        <v>0.01128537784258865</v>
       </c>
       <c r="D61">
-        <v>-0.0775406882636078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1176461462082588</v>
+      </c>
+      <c r="E61">
+        <v>-0.0396696011751949</v>
+      </c>
+      <c r="F61">
+        <v>0.01238930482436818</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1697039229825948</v>
+        <v>0.1695882917072533</v>
       </c>
       <c r="C62">
-        <v>-0.009605772752214371</v>
+        <v>0.02047003369405001</v>
       </c>
       <c r="D62">
-        <v>0.01149443049261092</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005593022390474727</v>
+      </c>
+      <c r="E62">
+        <v>-0.03345002386971858</v>
+      </c>
+      <c r="F62">
+        <v>0.03462933500955252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04676417415398416</v>
+        <v>0.04599250509267361</v>
       </c>
       <c r="C63">
-        <v>-0.001821023458778523</v>
+        <v>0.00173330366973116</v>
       </c>
       <c r="D63">
-        <v>-0.03594995738334155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05876064903185095</v>
+      </c>
+      <c r="E63">
+        <v>-0.02286992939014764</v>
+      </c>
+      <c r="F63">
+        <v>0.004305262443591749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09761226154670201</v>
+        <v>0.1096809580710704</v>
       </c>
       <c r="C64">
-        <v>0.0005694515168145408</v>
+        <v>0.01104701796401581</v>
       </c>
       <c r="D64">
-        <v>-0.007640753973111295</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04416564271528523</v>
+      </c>
+      <c r="E64">
+        <v>-0.02375493320674129</v>
+      </c>
+      <c r="F64">
+        <v>0.02510944670438699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1299860699693263</v>
+        <v>0.1494263141122605</v>
       </c>
       <c r="C65">
-        <v>0.01180129771078973</v>
+        <v>0.03356261228304955</v>
       </c>
       <c r="D65">
-        <v>0.02775254920654515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04305623461601437</v>
+      </c>
+      <c r="E65">
+        <v>-0.005530799740540098</v>
+      </c>
+      <c r="F65">
+        <v>0.04040757997374332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.159887401445824</v>
+        <v>0.1238939068796327</v>
       </c>
       <c r="C66">
-        <v>-0.005252847500863512</v>
+        <v>0.01342285670066313</v>
       </c>
       <c r="D66">
-        <v>-0.1135927986202388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1430381821419592</v>
+      </c>
+      <c r="E66">
+        <v>-0.06569739013536599</v>
+      </c>
+      <c r="F66">
+        <v>0.03341729924948084</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06682417165164738</v>
+        <v>0.058202478330818</v>
       </c>
       <c r="C67">
-        <v>-0.005108539121253744</v>
+        <v>0.002897318686288843</v>
       </c>
       <c r="D67">
-        <v>-0.02566888991024938</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05630368626145463</v>
+      </c>
+      <c r="E67">
+        <v>-0.01656306316757546</v>
+      </c>
+      <c r="F67">
+        <v>-0.03090352287523077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08298942022812342</v>
+        <v>0.1158720483880658</v>
       </c>
       <c r="C68">
-        <v>0.00428946440623976</v>
+        <v>0.0322249739153051</v>
       </c>
       <c r="D68">
-        <v>0.2351421172185735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2600042755784963</v>
+      </c>
+      <c r="E68">
+        <v>0.08605445797397633</v>
+      </c>
+      <c r="F68">
+        <v>0.0044487942322026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0351116053706953</v>
+        <v>0.03959677303795189</v>
       </c>
       <c r="C69">
-        <v>-0.003678027361846003</v>
+        <v>0.001209679514155239</v>
       </c>
       <c r="D69">
-        <v>0.003995329945317001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007840219924644431</v>
+      </c>
+      <c r="E69">
+        <v>-0.02252946267301254</v>
+      </c>
+      <c r="F69">
+        <v>0.001748424660016765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0333550961460783</v>
+        <v>0.06683054623938693</v>
       </c>
       <c r="C70">
-        <v>-0.02692001174513172</v>
+        <v>-0.02754405703041816</v>
       </c>
       <c r="D70">
-        <v>0.03762362183225777</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02361106138837972</v>
+      </c>
+      <c r="E70">
+        <v>0.03495109697905906</v>
+      </c>
+      <c r="F70">
+        <v>-0.18448879451614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09888933842786565</v>
+        <v>0.1359683809552517</v>
       </c>
       <c r="C71">
-        <v>0.005796481207057886</v>
+        <v>0.03662057484647088</v>
       </c>
       <c r="D71">
-        <v>0.2538273541963387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2722438619281566</v>
+      </c>
+      <c r="E71">
+        <v>0.09699410493673656</v>
+      </c>
+      <c r="F71">
+        <v>0.009374924602326952</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1351520588720095</v>
+        <v>0.1423237870708734</v>
       </c>
       <c r="C72">
-        <v>0.004208070712278459</v>
+        <v>0.0266279134273837</v>
       </c>
       <c r="D72">
-        <v>0.02517036434916646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002077647851404251</v>
+      </c>
+      <c r="E72">
+        <v>-0.03740604466954058</v>
+      </c>
+      <c r="F72">
+        <v>0.03324173562088454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2043656466724482</v>
+        <v>0.2024282350344106</v>
       </c>
       <c r="C73">
-        <v>-0.02070362664425219</v>
+        <v>0.01253289842581568</v>
       </c>
       <c r="D73">
-        <v>0.01931347502913905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01682934448996928</v>
+      </c>
+      <c r="E73">
+        <v>-0.06134539562676786</v>
+      </c>
+      <c r="F73">
+        <v>0.03518576809267016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1023866348595072</v>
+        <v>0.0947252433779022</v>
       </c>
       <c r="C74">
-        <v>-0.00480442710711416</v>
+        <v>0.01331910792516729</v>
       </c>
       <c r="D74">
-        <v>-0.005467386911206432</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01687310241912758</v>
+      </c>
+      <c r="E74">
+        <v>-0.04430591294843969</v>
+      </c>
+      <c r="F74">
+        <v>0.05760275098324068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1361475609084462</v>
+        <v>0.1275854671081066</v>
       </c>
       <c r="C75">
-        <v>0.005820999941859561</v>
+        <v>0.02810759825329771</v>
       </c>
       <c r="D75">
-        <v>-0.006933978895897084</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03033640792289839</v>
+      </c>
+      <c r="E75">
+        <v>-0.05758176833946504</v>
+      </c>
+      <c r="F75">
+        <v>0.02208549104759685</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08510765078594443</v>
+        <v>0.08746629636058273</v>
       </c>
       <c r="C77">
-        <v>0.001859160633696279</v>
+        <v>0.008190441667543116</v>
       </c>
       <c r="D77">
-        <v>-0.08226541202691889</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1122218459077318</v>
+      </c>
+      <c r="E77">
+        <v>-0.03906715195083983</v>
+      </c>
+      <c r="F77">
+        <v>0.03371773012061461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1374826437657248</v>
+        <v>0.1004085027153612</v>
       </c>
       <c r="C78">
-        <v>0.02489718123052534</v>
+        <v>0.03944606618854331</v>
       </c>
       <c r="D78">
-        <v>-0.03782597588088935</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1152021337364118</v>
+      </c>
+      <c r="E78">
+        <v>-0.07430637860364339</v>
+      </c>
+      <c r="F78">
+        <v>0.04767803005576453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1578316405565515</v>
+        <v>0.1638385005170633</v>
       </c>
       <c r="C79">
-        <v>-0.002196576055952402</v>
+        <v>0.02279783748464341</v>
       </c>
       <c r="D79">
-        <v>0.01863789547234307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01399274274017334</v>
+      </c>
+      <c r="E79">
+        <v>-0.04544742963578095</v>
+      </c>
+      <c r="F79">
+        <v>0.01134058522096256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0883510325587524</v>
+        <v>0.08255770791894709</v>
       </c>
       <c r="C80">
-        <v>-0.01248455830359923</v>
+        <v>-0.0008926813966114952</v>
       </c>
       <c r="D80">
-        <v>-0.03736207849925267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05629106637938754</v>
+      </c>
+      <c r="E80">
+        <v>-0.03600663884890393</v>
+      </c>
+      <c r="F80">
+        <v>-0.02238295886287671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1265086456277474</v>
+        <v>0.1201263974478426</v>
       </c>
       <c r="C81">
-        <v>0.01115940433671041</v>
+        <v>0.0319657679860314</v>
       </c>
       <c r="D81">
-        <v>-0.01718374789825534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01481734141880252</v>
+      </c>
+      <c r="E81">
+        <v>-0.05637257742167193</v>
+      </c>
+      <c r="F81">
+        <v>0.01851700132216104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1731248556522734</v>
+        <v>0.1665233925888334</v>
       </c>
       <c r="C82">
-        <v>-0.005489019185322043</v>
+        <v>0.02496874390228025</v>
       </c>
       <c r="D82">
-        <v>-0.005308038953388368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003399656295553295</v>
+      </c>
+      <c r="E82">
+        <v>-0.02643309264913112</v>
+      </c>
+      <c r="F82">
+        <v>0.08230604517999285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06591127776257026</v>
+        <v>0.05925343870580913</v>
       </c>
       <c r="C83">
-        <v>-0.003771010353868543</v>
+        <v>0.002732530046389866</v>
       </c>
       <c r="D83">
-        <v>-0.03181065387645254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05141257744776535</v>
+      </c>
+      <c r="E83">
+        <v>-0.00306975607323208</v>
+      </c>
+      <c r="F83">
+        <v>-0.02948968165548263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07475284039872339</v>
+        <v>0.05910629472243578</v>
       </c>
       <c r="C84">
-        <v>0.003250942329175167</v>
+        <v>0.01107499909010023</v>
       </c>
       <c r="D84">
-        <v>-0.04005219769480773</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0637694523665305</v>
+      </c>
+      <c r="E84">
+        <v>-0.006913428343017398</v>
+      </c>
+      <c r="F84">
+        <v>0.004703427868659376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1351359358303857</v>
+        <v>0.135724772732355</v>
       </c>
       <c r="C85">
-        <v>0.005762781026974543</v>
+        <v>0.02804430478500787</v>
       </c>
       <c r="D85">
-        <v>0.002956297830463128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009650085261724263</v>
+      </c>
+      <c r="E85">
+        <v>-0.03555989511687953</v>
+      </c>
+      <c r="F85">
+        <v>0.04761307353743072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08133440006924771</v>
+        <v>0.09491355793930455</v>
       </c>
       <c r="C86">
-        <v>-0.009938446510259482</v>
+        <v>-0.005503047039520392</v>
       </c>
       <c r="D86">
-        <v>0.09956488574001708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04060243609450469</v>
+      </c>
+      <c r="E86">
+        <v>-0.2255074574903538</v>
+      </c>
+      <c r="F86">
+        <v>-0.9059231282368022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1301176660880378</v>
+        <v>0.09532781224118031</v>
       </c>
       <c r="C87">
-        <v>0.00585324780854468</v>
+        <v>0.01950653597280964</v>
       </c>
       <c r="D87">
-        <v>-0.06235832925581238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09458046291217352</v>
+      </c>
+      <c r="E87">
+        <v>0.05205114383558603</v>
+      </c>
+      <c r="F87">
+        <v>0.04869771658327936</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05534743378073602</v>
+        <v>0.06079156932644694</v>
       </c>
       <c r="C88">
-        <v>-0.002238017423351491</v>
+        <v>0.002179654896038333</v>
       </c>
       <c r="D88">
-        <v>-0.0198516511932828</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04932721734623409</v>
+      </c>
+      <c r="E88">
+        <v>-0.02409729189842121</v>
+      </c>
+      <c r="F88">
+        <v>0.01329769751784913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1100357893523421</v>
+        <v>0.1307876808694113</v>
       </c>
       <c r="C89">
-        <v>-0.01881951205736955</v>
+        <v>0.01330841538708667</v>
       </c>
       <c r="D89">
-        <v>0.2688609176887934</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2469973896938197</v>
+      </c>
+      <c r="E89">
+        <v>0.08968762457861734</v>
+      </c>
+      <c r="F89">
+        <v>-0.008130437677437371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1067802125197939</v>
+        <v>0.1509912754331419</v>
       </c>
       <c r="C90">
-        <v>0.002648168787767416</v>
+        <v>0.03329218198908313</v>
       </c>
       <c r="D90">
-        <v>0.2553061727663702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2708627090145203</v>
+      </c>
+      <c r="E90">
+        <v>0.1127716754289634</v>
+      </c>
+      <c r="F90">
+        <v>-0.008200081976057335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1153147772470356</v>
+        <v>0.1209030674180292</v>
       </c>
       <c r="C91">
-        <v>-0.001931613172918759</v>
+        <v>0.01955303462340138</v>
       </c>
       <c r="D91">
-        <v>0.03165280335850411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01480951339226433</v>
+      </c>
+      <c r="E91">
+        <v>-0.05544807004313088</v>
+      </c>
+      <c r="F91">
+        <v>-0.0008371659438098917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1130590109761841</v>
+        <v>0.1478209934160955</v>
       </c>
       <c r="C92">
-        <v>-0.01347867458437134</v>
+        <v>0.02435707635238783</v>
       </c>
       <c r="D92">
-        <v>0.27522686405644</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.291675588077929</v>
+      </c>
+      <c r="E92">
+        <v>0.1017042352684253</v>
+      </c>
+      <c r="F92">
+        <v>-0.01403545912522149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1137300431826016</v>
+        <v>0.1517578944158362</v>
       </c>
       <c r="C93">
-        <v>-0.003719017632176881</v>
+        <v>0.02855717373947706</v>
       </c>
       <c r="D93">
-        <v>0.2621941068497467</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.267624705786864</v>
+      </c>
+      <c r="E93">
+        <v>0.07922763288601245</v>
+      </c>
+      <c r="F93">
+        <v>0.002714014609478361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1426212156324295</v>
+        <v>0.1289634141369209</v>
       </c>
       <c r="C94">
-        <v>0.001207854066698969</v>
+        <v>0.02464632482643555</v>
       </c>
       <c r="D94">
-        <v>-0.02227294417963554</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04277070844348285</v>
+      </c>
+      <c r="E94">
+        <v>-0.05762441985805668</v>
+      </c>
+      <c r="F94">
+        <v>0.03794930093984298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1226628020605122</v>
+        <v>0.1267120994911848</v>
       </c>
       <c r="C95">
-        <v>-0.008491776882523118</v>
+        <v>0.003235592495035188</v>
       </c>
       <c r="D95">
-        <v>-0.05199424091900399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09388771101888285</v>
+      </c>
+      <c r="E95">
+        <v>-0.04724685823271475</v>
+      </c>
+      <c r="F95">
+        <v>-0.00616342396285303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.05356539128683528</v>
+        <v>0.108022936234302</v>
       </c>
       <c r="C96">
-        <v>-0.9932839358052823</v>
+        <v>-0.9872616243943891</v>
       </c>
       <c r="D96">
-        <v>0.01954745008170431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05013668342948947</v>
+      </c>
+      <c r="E96">
+        <v>-0.05377130880457984</v>
+      </c>
+      <c r="F96">
+        <v>0.04219174403162256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1764982181321361</v>
+        <v>0.1941998751949658</v>
       </c>
       <c r="C97">
-        <v>-0.03586125955286097</v>
+        <v>-0.006961285020560436</v>
       </c>
       <c r="D97">
-        <v>0.04672413327610245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0185528760384604</v>
+      </c>
+      <c r="E97">
+        <v>-0.02476598575987896</v>
+      </c>
+      <c r="F97">
+        <v>-0.07988891929889738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.204161110126595</v>
+        <v>0.2062270783232155</v>
       </c>
       <c r="C98">
-        <v>-0.02485463015179349</v>
+        <v>0.00732805281988091</v>
       </c>
       <c r="D98">
-        <v>0.003486310848126349</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01263537189838457</v>
+      </c>
+      <c r="E98">
+        <v>0.07827882089832217</v>
+      </c>
+      <c r="F98">
+        <v>-0.09586992520538373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05390172966832549</v>
+        <v>0.05420458432719501</v>
       </c>
       <c r="C99">
-        <v>-0.01114468214728215</v>
+        <v>-0.004757291431811311</v>
       </c>
       <c r="D99">
-        <v>-0.01512171595605092</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.0397690076438619</v>
+      </c>
+      <c r="E99">
+        <v>-0.02227989631009331</v>
+      </c>
+      <c r="F99">
+        <v>0.001729814834811975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1616305312257392</v>
+        <v>0.1263982644377245</v>
       </c>
       <c r="C100">
-        <v>-0.05755885350344094</v>
+        <v>-0.05401061027423244</v>
       </c>
       <c r="D100">
-        <v>-0.5663461595609777</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3457191097248667</v>
+      </c>
+      <c r="E100">
+        <v>0.8871335552051606</v>
+      </c>
+      <c r="F100">
+        <v>-0.1551272169754292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02329029845491758</v>
+        <v>0.02840591699873993</v>
       </c>
       <c r="C101">
-        <v>0.006509229001732984</v>
+        <v>0.008764697584897674</v>
       </c>
       <c r="D101">
-        <v>-0.01529041106170044</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03044785462709488</v>
+      </c>
+      <c r="E101">
+        <v>-0.01303903000080056</v>
+      </c>
+      <c r="F101">
+        <v>-0.01496536874768658</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
